--- a/format_excel/FORMAT EXCEL DATA PENGALAMAN PERUSAHAAN DRT JMTO.xlsx
+++ b/format_excel/FORMAT EXCEL DATA PENGALAMAN PERUSAHAAN DRT JMTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vms-jmto\format_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kripto_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5ED4CDA-CBD0-476C-8529-4DE1B589CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AE4BF-458A-475C-9B45-4A342D2A8172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>IMPORT EXCEL DATA PENGALAMAN PERUSAHAAN JMTO</t>
   </si>
@@ -74,13 +74,19 @@
     <t>PALIKANCI</t>
   </si>
   <si>
-    <t>SURGEM</t>
-  </si>
-  <si>
     <t>PKERJAAN TOLL PALIKANCI</t>
   </si>
   <si>
     <t>PKERJAAN TOLL SURGEM</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>SURGEM  2</t>
+  </si>
+  <si>
+    <t>TANGGAL KONTRAK</t>
   </si>
 </sst>
 </file>
@@ -88,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -150,15 +156,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CC3E2E-A3E4-418C-ABD1-9C4DCA633CE8}">
   <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,16 +499,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -523,7 +529,9 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,12 +539,12 @@
         <v>163409923</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
@@ -545,151 +553,155 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123123123</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2000</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
@@ -1703,7 +1715,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E245:E1048576" xr:uid="{1D53E4B0-9B76-42E0-A383-76337EE9C044}">

--- a/format_excel/FORMAT EXCEL DATA PENGALAMAN PERUSAHAAN DRT JMTO.xlsx
+++ b/format_excel/FORMAT EXCEL DATA PENGALAMAN PERUSAHAAN DRT JMTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kripto_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vms-jmto\format_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AE4BF-458A-475C-9B45-4A342D2A8172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5ED4CDA-CBD0-476C-8529-4DE1B589CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A632CAD5-B0FD-44A7-985B-58B65B2ABDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>IMPORT EXCEL DATA PENGALAMAN PERUSAHAAN JMTO</t>
   </si>
@@ -74,19 +74,13 @@
     <t>PALIKANCI</t>
   </si>
   <si>
+    <t>SURGEM</t>
+  </si>
+  <si>
     <t>PKERJAAN TOLL PALIKANCI</t>
   </si>
   <si>
     <t>PKERJAAN TOLL SURGEM</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>SURGEM  2</t>
-  </si>
-  <si>
-    <t>TANGGAL KONTRAK</t>
   </si>
 </sst>
 </file>
@@ -94,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -156,15 +150,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CC3E2E-A3E4-418C-ABD1-9C4DCA633CE8}">
   <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,16 +493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -529,9 +523,7 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,12 +531,12 @@
         <v>163409923</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
@@ -553,155 +545,151 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123123123</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
+      <c r="D25" s="6"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
+      <c r="D26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
@@ -1715,7 +1703,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E245:E1048576" xr:uid="{1D53E4B0-9B76-42E0-A383-76337EE9C044}">
